--- a/db/queries/predicted/ASIS_20161108_HerpInv_Database-N2-N2-CodeS-queries-predicted.xlsx
+++ b/db/queries/predicted/ASIS_20161108_HerpInv_Database-N2-N2-CodeS-queries-predicted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
@@ -504,14 +499,9 @@
           <t>tab_naturalness_modifier</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>query_stats</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -575,14 +565,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tblfielddataturtlemeasurements'}, {'where': '1'}, {'predicate': '1'}, {'column': 'age'}]</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -645,14 +630,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'locationid'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tblfielddataturtlemeasurements'}, {'group by': '1'}, {'column': 'locationid'}]</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -715,14 +695,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'weight'}, {'table source item': '1'}, {'table': 'tblfielddataturtlemeasurements'}]</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -786,14 +761,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'locationid'}, {'table source item': '1'}, {'table': 'tblfielddataturtlemeasurements'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tblfielddatasnakedatacollection'}, {'predicate': '1'}, {'column': 'locationid'}, {'column': 'locationid'}]</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -857,14 +827,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'locationid'}, {'select element': '1'}, {'function': 'count'}, {'column': '[trap_#]'}, {'table source item': '1'}, {'table': 'tblfielddataminnowtrapsurveys'}, {'group by': '1'}, {'column': 'locationid'}]</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -927,14 +892,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'locationid'}, {'select element': '1'}, {'function': 'sum'}, {'column': 'count'}, {'table source item': '1'}, {'table': 'tblfielddataminnowtrapsurveys'}, {'group by': '1'}, {'column': 'locationid'}]</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -998,14 +958,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'locationid'}, {'select element': '1'}, {'column': '[trap_#]'}, {'select element': '1'}, {'function': 'sum'}, {'column': 'count'}, {'table source item': '1'}, {'table': 'tblfielddataminnowtrapsurveys'}, {'group by': '1'}, {'column': 'locationid'}, {'group by': '1'}, {'column': '[trap_#]'}]</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
@@ -1070,14 +1025,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'stage'}, {'select element': '1'}, {'function': 'sum'}, {'column': 'count'}, {'table source item': '1'}, {'table': 'tblfielddataminnowtrapsurveys'}, {'where': '1'}, {'predicate': '1'}, {'column': 'locationid'}, {'group by': '1'}, {'column': 'stage'}]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
@@ -1141,14 +1091,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'tempc'}, {'table source item': '1'}, {'table': 'tblfielddatawaterproperties'}, {'where': '1'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'locationid'}, {'table source item': '1'}, {'table': 'tblfielddataamphibiancallcounts'}, {'column': 'locationid'}]</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
@@ -1211,14 +1156,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'tempc'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'salinity'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'conductivity'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'ph'}, {'non ansi join': '1'}, {'table source item': '1'}, {'table': 'tblfielddatawaterproperties'}, {'table source item': '1'}, {'table': 'tblfielddataturtletrapsurveys'}, {'where': '1'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'recordid'}, {'table source item': '1'}, {'table': 'tblfielddataturtletrapsurveys'}, {'column': 'recordid'}]</t>
-        </is>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
@@ -1283,14 +1223,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'recordid'}, {'select element': '1'}, {'column': 'comments'}, {'table source item': '1'}, {'table': 'tblfielddataturtletrapsurveys'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tblfielddataturtlemeasurements'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'recordid'}, {'column': 'recordid'}, {'predicate': '1'}, {'column': 'sex'}, {'column': 'sex'}, {'composite-key-join': '1'}]</t>
-        </is>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
@@ -1354,14 +1289,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'sex'}, {'select element': '1'}, {'function': 'max'}, {'column': 'weight'}, {'table source item': '1'}, {'table': 'tblfielddataturtlemeasurements'}, {'group by': '1'}, {'column': 'sex'}]</t>
-        </is>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
@@ -1424,14 +1354,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'svl'}, {'table source item': '1'}, {'table': 'tblfielddatasnakedatacollection'}, {'order by': '1'}, {'column': 'svl'}]</t>
-        </is>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
@@ -1495,14 +1420,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'sex'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'weight'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'svl'}, {'table source item': '1'}, {'table': 'tblfielddatasnakedatacollection'}, {'group by': '1'}, {'column': 'sex'}]</t>
-        </is>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
@@ -1566,14 +1486,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': '[species_code]'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'tlength'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'weight'}, {'table source item': '1'}, {'table': 'tblfielddatasnakedatacollection'}, {'group by': '1'}, {'column': '[species_code]'}]</t>
-        </is>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
@@ -1638,14 +1553,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': '[agency/title]'}, {'select element': '1'}, {'function': 'count'}, {'column': 'recordid'}, {'table source item': '1'}, {'table': 'tblfielddataturtlemeasurements'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlinkobservers'}, {'predicate': '1'}, {'column': 'eventid'}, {'column': 'eventid'}, {'join': '1'}, {'table source item': '1'}, {'table': 'observer_lu'}, {'predicate': '1'}, {'column': 'obsinits'}, {'column': 'obsinits'}, {'group by': '1'}, {'column': '[agency/title]'}]</t>
-        </is>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
@@ -1711,14 +1621,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'eventid'}, {'table source item': '1'}, {'table': 'tblevents'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbleventdataherps'}, {'predicate': '1'}, {'column': 'eventid'}, {'column': 'eventid'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlinkobservers'}, {'predicate': '1'}, {'column': 'eventid'}, {'column': 'eventid'}, {'join': '1'}, {'table source item': '1'}, {'table': 'observer_lu'}, {'predicate': '1'}, {'column': 'obsinits'}, {'column': 'obsinits'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'year'}, {'predicate': '1'}, {'column': 'firstname'}, {'predicate': '1'}, {'column': 'lastname'}]</t>
-        </is>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
@@ -1783,14 +1688,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'obsinits'}, {'select element': '1'}, {'column': 'firstname'}, {'select element': '1'}, {'column': 'lastname'}, {'table source item': '1'}, {'table': 'tlinkobservers'}, {'join': '1'}, {'table source item': '1'}, {'table': 'observer_lu'}, {'predicate': '1'}, {'column': 'obsinits'}, {'column': 'obsinits'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tblfielddataturtlemeasurements'}, {'predicate': '1'}, {'column': 'eventid'}, {'column': 'eventid'}]</t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
@@ -1854,14 +1754,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': '[species_code]'}, {'table source item': '1'}, {'table': 'tblfielddatagreencardobservations'}]</t>
-        </is>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
@@ -1925,14 +1820,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'locationid'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'utmx'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'utmy'}, {'table source item': '1'}, {'table': 'tblfielddatatimeconstrainedsearches'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbllocationspoints'}, {'predicate': '1'}, {'column': 'locationid'}, {'column': 'locationid'}, {'group by': '1'}, {'column': 'locationid'}]</t>
-        </is>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
@@ -1997,14 +1887,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'description'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlustage'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tblfielddataminnowtrapsurveys'}, {'predicate': '1'}, {'column': 'stage'}, {'column': 'stage'}, {'group by': '1'}, {'column': 'description'}]</t>
-        </is>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
@@ -2067,14 +1952,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'abundanceid'}, {'select element': '1'}, {'column': 'abundancetext'}, {'table source item': '1'}, {'table': 'tblabundance_lu'}, {'where': '1'}, {'predicate': '1'}, {'column': 'abundance'}]</t>
-        </is>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
@@ -2138,14 +2018,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'locationid'}, {'table source item': '1'}, {'table': 'tblfielddatacoverboard'}, {'where': '1'}, {'predicate': '1'}, {'column': 'type'}]</t>
-        </is>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
@@ -2209,14 +2084,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': '[board_#]'}, {'select element': '1'}, {'column': 'type'}, {'table source item': '1'}, {'table': 'tblfielddatacoverboard'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbllocations'}, {'predicate': '1'}, {'column': 'locationid'}, {'column': 'locationid'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'siteid'}, {'predicate': '1'}, {'column': '[board_#]'}]</t>
-        </is>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
@@ -2281,14 +2151,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'airtemp'}, {'table source item': '1'}, {'table': 'tblfielddatacoverboard'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbleventdataherps'}, {'predicate': '1'}, {'column': 'eventid'}, {'column': 'eventid'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbllocations'}, {'predicate': '1'}, {'column': 'locationid'}, {'column': 'locationid'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'type'}, {'predicate': '1'}, {'column': 'siteid'}, {'predicate': '1'}, {'column': 'weather'}]</t>
-        </is>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
@@ -2354,14 +2219,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'behavior'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tblfielddatasnakedatacollection'}, {'where': '1'}, {'predicate': '1'}, {'column': 'capturemethod'}, {'group by': '1'}, {'column': 'behavior'}]</t>
-        </is>
-      </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
@@ -2427,14 +2287,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'behavior'}, {'select element': '1'}, {'column': 'capturemethod'}, {'table source item': '1'}, {'table': 'tblfielddatasnakedatacollection'}, {'where': '1'}, {'predicate': '1'}, {'column': 'notes'}]</t>
-        </is>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
@@ -2499,14 +2354,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'pointid'}, {'select element': '1'}, {'column': 'snakeid'}, {'select element': '1'}, {'column': '[board_#]'}, {'select element': '1'}, {'column': 'utmx'}, {'select element': '1'}, {'column': 'utmy'}, {'table source item': '1'}, {'table': 'tblfielddatacoverboard'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbllocations'}, {'predicate': '1'}, {'column': 'locationid'}, {'column': 'locationid'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbllocationspoints'}, {'predicate': '1'}, {'column': 'locationid'}, {'column': 'locationid'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'recapture'}, {'predicate': '1'}, {'column': 'siteid'}]</t>
-        </is>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
@@ -2570,14 +2420,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'obsinits'}, {'table source item': '1'}, {'table': 'observer_lu'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlinkobservers'}, {'predicate': '1'}, {'column': 'obsinits'}, {'column': 'obsinits'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tblevents'}, {'predicate': '1'}, {'column': 'eventid'}, {'column': 'eventid'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tblfielddatacoverboard'}, {'predicate': '1'}, {'column': 'eventid'}, {'column': 'eventid'}]</t>
-        </is>
-      </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
@@ -2642,14 +2487,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'weather'}, {'select element': '1'}, {'function': 'count'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'airtemp'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'watertemp'}, {'table source item': '1'}, {'table': 'tbleventdataherps'}, {'group by': '1'}, {'column': 'weather'}]</t>
-        </is>
-      </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
@@ -2713,14 +2553,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'obsinits'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'airtemp'}, {'table source item': '1'}, {'table': 'observer_lu'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlinkobservers'}, {'predicate': '1'}, {'column': 'obsinits'}, {'column': 'obsinits'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbleventdataherps'}, {'predicate': '1'}, {'column': 'eventid'}, {'column': 'eventid'}, {'group by': '1'}, {'column': 'obsinits'}]</t>
-        </is>
-      </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
@@ -2785,14 +2620,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'weather'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'airtemp'}, {'table source item': '1'}, {'table': 'tbleventdataherps'}, {'group by': '1'}, {'column': 'weather'}]</t>
-        </is>
-      </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
@@ -2856,14 +2686,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'description'}, {'table source item': '1'}, {'table': 'tluproject'}, {'where': '1'}, {'predicate': '1'}, {'column': 'project'}]</t>
-        </is>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
@@ -2927,14 +2752,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'parktype'}, {'table source item': '1'}, {'table': 'tluparkcode'}, {'where': '1'}, {'predicate': '1'}, {'column': 'parkcode'}]</t>
-        </is>
-      </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
@@ -2998,14 +2818,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'text'}, {'table source item': '1'}, {'table': 'tluevidencecode'}, {'where': '1'}, {'predicate': '1'}, {'column': '[evidence_code]'}]</t>
-        </is>
-      </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
@@ -3069,14 +2884,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'habitat'}, {'select element': '1'}, {'column': 'description'}, {'table source item': '1'}, {'table': 'tlumicrohabitat'}, {'where': '1'}, {'predicate': '1'}, {'column': 'habitat'}]</t>
-        </is>
-      </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
@@ -3140,14 +2950,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': '[trap_type]'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tblfielddataturtletrapsurveys'}, {'group by': '1'}, {'column': '[trap_type]'}]</t>
-        </is>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
@@ -3211,14 +3016,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'locationid'}, {'table source item': '1'}, {'table': 'tbllocations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tblfielddataturtletrapsurveys'}, {'predicate': '1'}, {'column': 'locationid'}, {'column': 'locationid'}, {'where': '1'}, {'predicate': '1'}, {'column': '[trap_type]'}]</t>
-        </is>
-      </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
@@ -3282,14 +3082,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'sex'}, {'select element': '1'}, {'function': 'avg'}, {'column': '[carapace_length]'}, {'select element': '1'}, {'function': 'avg'}, {'column': '[carapace_width]'}, {'select element': '1'}, {'function': 'avg'}, {'column': '[plastron_length]'}, {'select element': '1'}, {'function': 'avg'}, {'column': '[plastron_width]'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'weight'}, {'table source item': '1'}, {'table': 'tblfielddataturtlemeasurements'}, {'group by': '1'}, {'column': 'sex'}]</t>
-        </is>
-      </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
@@ -3351,11 +3146,6 @@
       <c r="N41" t="inlineStr">
         <is>
           <t>N2</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tblfielddataturtlemeasurements'}, {'where': '1'}, {'predicate': '1'}, {'column': 'gravid'}]</t>
         </is>
       </c>
     </row>
